--- a/biology/Botanique/Chai_de_Lardimalie/Chai_de_Lardimalie.xlsx
+++ b/biology/Botanique/Chai_de_Lardimalie/Chai_de_Lardimalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée du chai de Lardimalie[1]  est un musée privé français. Il est abrité dans un chai construit en 1902 sur la commune de Saint-Pierre-de-Chignac, à quinze kilomètres de Périgueux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée du chai de Lardimalie  est un musée privé français. Il est abrité dans un chai construit en 1902 sur la commune de Saint-Pierre-de-Chignac, à quinze kilomètres de Périgueux.
 Il se situe  en Périgord blanc, au centre du département de la Dordogne, inclus dans la région Nouvelle-Aquitaine.
 Ce musée de la vigne et du vin est consacré à l'activité viticole et vinicole périgourdine de la fin du XIXe siècle jusqu'en 1967, date de la dernière vendange.
 Ouvert à la visite, le chai de Lardimalie est resté dans la même famille depuis cinq générations. Il est à l'heure actuelle la propriété de la famille Mullenheim. En 2021, l'office de tourisme du Grand Périgueux en prend la gestion.
@@ -514,9 +526,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Construit en 1902 par Ernest Minvielle[2], architecte bordelais renommé, émule de Théodore Duphot, sur la demande de Jules Honoré Sécrestat, (1822-1905) industriel bordelais, le chai de Lardimalie a été édifié pour produire et conserver le vin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construit en 1902 par Ernest Minvielle, architecte bordelais renommé, émule de Théodore Duphot, sur la demande de Jules Honoré Sécrestat, (1822-1905) industriel bordelais, le chai de Lardimalie a été édifié pour produire et conserver le vin.
 Le style Minvielle a marqué plusieurs bâtiments vinicoles de châteaux médocains en particulier à Cantenac Brown. Ses vastes bâtiments harmonieux et fonctionnels érigés autour de cuviers centraux sur deux niveaux étaient considérés comme des chais modèles de 1870 jusqu'au début du XXe siècle.
 Le chai de Lardimalie possède les caractéristiques du style Minvielle mais il est aussi le résultat de l'expérience professionnelle de J. H. Screstat. 
 À l'intérieur, bon nombre d'éléments ont été installés pour simplifier le travail : l'eau courante, des rails, une plaque tournante, des chariots roulants. J.H. Sécrestat a sélectionné par ailleurs un  matériel innovant pour l'époque : étuveuse à vapeur, fouloir égrappoir, filtre à vin. Il a ainsi donné à l'édifice un agencement quasi industriel.
@@ -549,10 +563,12 @@
           <t>Vie de Jules Honoré Sécrestat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfant du Périgord, né en 1822 à Montignac, Jules Honoré Sécrestat travaille d'abord comme apprenti à la distillerie Requier de Montignac, puis aux établissements Archambaud à Bordeaux, où il devient chef de laboratoire.
-À l'époque où l'absinthe fait des ravages, il invente une boisson à base de racines de gentiane, le « Bitter Sécrestat », le premier apéritif à la gentiane, recommandé par le corps médical qui souhaite contrer la consommation d'absinthe[3].
+À l'époque où l'absinthe fait des ravages, il invente une boisson à base de racines de gentiane, le « Bitter Sécrestat », le premier apéritif à la gentiane, recommandé par le corps médical qui souhaite contrer la consommation d'absinthe.
 En 1851, J.H. Sécrestat fonde sa propre entreprise rue Notre-Dame puis s'installe dans une vaste usine édifiée par Ernest Minvielle, cours du Médoc à Bordeaux, en 1878.
 Il crée de nombreuses boissons, en particulier le Toni Kola à base de noix de Kola.
 En 1857, il revient en Périgord où il se marie.
@@ -587,15 +603,17 @@
           <t>Du chai au musée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la disparition de J.H. Sécrestat, le chai reste dans sa famille passant d'une génération à l'autre.
 Le rendement des vignes ne pouvant rivaliser avec les vignobles bergeracois ou bordelais, le chai ferma ses portes.
 Après avoir transformé le chai en musée, les propriétaires actuels, Christian et Jacqueline de Mullenheim, l'ouvrent au public en juillet 2009.
-Le bâtiment est inscrit au titre des monuments historiques en 2010[5].
+Le bâtiment est inscrit au titre des monuments historiques en 2010.
 Le musée a reçu le label tourisme et handicap pour les personnes atteintes d'un handicap moteur, auditif et mental en juillet 2012.
 Depuis février 2015, il a rejoint les sites « Dordogne en famille ».
-Début 2021, l'office de tourisme du Grand Périgueux en prend la gestion pour une réouverture prévue le 15 mai[6]
+Début 2021, l'office de tourisme du Grand Périgueux en prend la gestion pour une réouverture prévue le 15 mai
 </t>
         </is>
       </c>
@@ -624,7 +642,9 @@
           <t>Thèmes du musée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du chai de Lardimalie présente le matériel et les outils d'origine du chai. Cette collection s'est enrichie grâce à de nombreux dons et acquisitions qui permettent de bien comprendre le trajet du raisin, de la vigne au tonneau, ainsi que les diverses étapes de la vinification et du vieillissement du vin.
 Le musée du chai de Lardimalie évoque également la vie rurale et citadine de la fin du XIXe siècle jusqu'à la première moitié du XXe siècle avec de nombreux documents, lettres, photographies et objets du quotidien. 
